--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44170,6 +44170,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44207,6 +44207,43 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44244,6 +44244,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44281,6 +44281,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44318,6 +44318,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44355,6 +44355,41 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44390,6 +44390,43 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44427,6 +44427,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44464,6 +44464,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44501,6 +44501,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44538,6 +44538,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44575,6 +44575,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44610,6 +44610,43 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44647,6 +44647,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44684,6 +44684,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44721,6 +44721,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44758,6 +44758,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44795,6 +44795,78 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44867,6 +44867,41 @@
         <v>800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44902,6 +44902,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1949"/>
+  <dimension ref="A1:I1950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70417,6 +70417,43 @@
         <v>600</v>
       </c>
     </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1950" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1950" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1950" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1950" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1950"/>
+  <dimension ref="A1:I1951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70454,6 +70454,43 @@
         </is>
       </c>
     </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1951" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1951" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1951" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1951" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1951"/>
+  <dimension ref="A1:I1952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70491,6 +70491,43 @@
         </is>
       </c>
     </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1952" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1952" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1952" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1952" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1952"/>
+  <dimension ref="A1:I1953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70528,6 +70528,43 @@
         </is>
       </c>
     </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1953" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1953" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1953" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1953" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1953"/>
+  <dimension ref="A1:I1954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70565,6 +70565,43 @@
         </is>
       </c>
     </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1954" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1954" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1954" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1954"/>
+  <dimension ref="A1:I1955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70602,6 +70602,43 @@
         </is>
       </c>
     </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1955" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1955" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1955" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1955"/>
+  <dimension ref="A1:I1956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70639,6 +70639,43 @@
         </is>
       </c>
     </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1956" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1956" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1956" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1956"/>
+  <dimension ref="A1:I1957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70676,6 +70676,43 @@
         </is>
       </c>
     </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1957" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1957" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1957" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1957"/>
+  <dimension ref="A1:I1958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70713,6 +70713,43 @@
         </is>
       </c>
     </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1958" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1958" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1958" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1958"/>
+  <dimension ref="A1:I1959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70750,6 +70750,43 @@
         </is>
       </c>
     </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1959" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1959" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1959" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1959"/>
+  <dimension ref="A1:I1960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70787,6 +70787,41 @@
         </is>
       </c>
     </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1960" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1960" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1960" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1960"/>
+  <dimension ref="A1:I1961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70822,6 +70822,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1961" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1961" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1961" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1961" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4936.xlsx
+++ b/data/4936.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1961"/>
+  <dimension ref="A1:I1962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70859,6 +70859,41 @@
         </is>
       </c>
     </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>MALPAC</t>
+        </is>
+      </c>
+      <c r="E1962" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1962" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1962" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
